--- a/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
+++ b/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D72BE-7622-4136-8D2D-E9E531A404BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470CD06-30E9-4F2E-9A20-D9FC6312A40E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -303,13 +303,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,12 +610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
@@ -631,10 +631,10 @@
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
@@ -833,7 +833,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,16 +850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="4"/>
@@ -871,15 +871,15 @@
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="5">
-        <v>449.5</v>
+        <v>427.2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="5">
-        <v>449.5</v>
+        <v>427.2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,16 +1082,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="4"/>
@@ -1103,15 +1103,15 @@
       <c r="B2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="5">
-        <v>370.6</v>
+        <v>360.6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="5">
-        <v>354.6</v>
+        <v>344.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">

--- a/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
+++ b/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470CD06-30E9-4F2E-9A20-D9FC6312A40E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0F7BE-A300-43DF-849B-706A082C4769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>Device</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -592,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,6 +632,9 @@
         <v>366.6</v>
       </c>
       <c r="H1" s="4"/>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -641,6 +653,9 @@
       <c r="G2" s="5">
         <v>338.9</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -658,6 +673,9 @@
       </c>
       <c r="G3" s="1">
         <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -832,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,6 +881,9 @@
         <v>51</v>
       </c>
       <c r="H1" s="4"/>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -881,6 +902,9 @@
       <c r="G2" s="5">
         <v>427.2</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -898,6 +922,9 @@
       </c>
       <c r="G3" s="5">
         <v>427.2</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1064,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,6 +1122,9 @@
         <v>51</v>
       </c>
       <c r="H1" s="4"/>
+      <c r="I1" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -1113,6 +1143,9 @@
       <c r="G2" s="5">
         <v>360.6</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -1130,6 +1163,9 @@
       </c>
       <c r="G3" s="5">
         <v>344.6</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">

--- a/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
+++ b/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0F7BE-A300-43DF-849B-706A082C4769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
     <sheet name="Add_Devices_LoopB_PFI" sheetId="8" r:id="rId2"/>
     <sheet name="Add_Devices_LoopB_FIM" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="J9" s="8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -833,7 +832,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -847,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1041,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1088,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1282,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">

--- a/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
+++ b/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
@@ -31,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alpesh Dhakad</author>
+  </authors>
+  <commentList>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alpesh Dhakad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+4B 4" [517.050.041] &amp; 801HL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
   <si>
     <t>Device</t>
   </si>
@@ -127,9 +161,6 @@
     <t>Isolator Jumper On</t>
   </si>
   <si>
-    <t>4B 4" [517.050.041] &amp; 801HL</t>
-  </si>
-  <si>
     <t>DC Units on UI for changing base of 850PH</t>
   </si>
   <si>
@@ -197,13 +228,16 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>Assign Base/Default Base Row Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +259,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -597,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +679,7 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -640,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>10</v>
@@ -653,7 +700,7 @@
         <v>338.9</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -661,7 +708,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
@@ -674,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -682,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
@@ -701,7 +748,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5">
         <v>378.9</v>
@@ -733,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
@@ -796,8 +843,8 @@
       <c r="H9" s="9">
         <v>1.3</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>31</v>
+      <c r="I9" s="8">
+        <v>12</v>
       </c>
       <c r="J9" s="8">
         <v>6</v>
@@ -805,7 +852,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>28</v>
@@ -842,6 +889,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -874,14 +922,14 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -889,20 +937,20 @@
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="16"/>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5">
         <v>427.2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -910,20 +958,20 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="5">
         <v>427.2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -931,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
@@ -988,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -1014,13 +1062,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -1046,13 +1094,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -1115,14 +1163,14 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1130,20 +1178,20 @@
         <v>18</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="16"/>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="5">
         <v>360.6</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1151,20 +1199,20 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="5">
         <v>344.6</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1172,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
@@ -1229,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -1255,13 +1303,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -1287,13 +1335,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>

--- a/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
+++ b/Test Data/Verify Trip Current Calculation for Multiple Base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1EFEDE-0D92-4DE7-B038-7ADD6E933A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -21,23 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Alpesh Dhakad</author>
   </authors>
   <commentList>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="61">
   <si>
     <t>Device</t>
   </si>
@@ -206,18 +201,9 @@
     <t>verifyTripCurrentWithMultipleBase,verifyTripCurrentWithMultipleLoop</t>
   </si>
   <si>
-    <t>NGC-1398, NGC-1399</t>
-  </si>
-  <si>
-    <t>NGC-1399</t>
-  </si>
-  <si>
     <t>verifyTripCurrentWithMultipleLoop</t>
   </si>
   <si>
-    <t>NGC-1400</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -231,12 +217,39 @@
   </si>
   <si>
     <t>Assign Base/Default Base Row Number</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>NGC-595/T1473 OR TC-227</t>
+  </si>
+  <si>
+    <t>NGC-595/T1474 OR TC-228</t>
+  </si>
+  <si>
+    <t>NGC-595/T1475 OR TC-229</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,11 +657,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +677,7 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -675,14 +688,20 @@
         <v>24</v>
       </c>
       <c r="G1" s="5">
-        <v>366.6</v>
+        <v>351</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -697,13 +716,19 @@
         <v>29</v>
       </c>
       <c r="G2" s="5">
-        <v>338.9</v>
+        <v>287</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -721,15 +746,18 @@
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>46</v>
+      <c r="B4" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
@@ -741,8 +769,11 @@
       <c r="G4" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
         <v>23</v>
@@ -751,10 +782,13 @@
         <v>31</v>
       </c>
       <c r="G5" s="5">
-        <v>378.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -780,13 +814,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -818,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -850,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -879,7 +913,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -894,17 +928,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
     <col min="4" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="38.6640625" customWidth="1"/>
@@ -914,7 +948,7 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -925,14 +959,20 @@
         <v>38</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -947,18 +987,24 @@
         <v>39</v>
       </c>
       <c r="G2" s="5">
-        <v>427.2</v>
+        <v>479</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
@@ -968,18 +1014,21 @@
         <v>40</v>
       </c>
       <c r="G3" s="5">
-        <v>427.2</v>
+        <v>449</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>47</v>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
@@ -987,16 +1036,22 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1028,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1089,10 +1144,10 @@
         <v>30</v>
       </c>
       <c r="J9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -1135,11 +1190,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1210,7 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -1166,14 +1221,20 @@
         <v>38</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1188,18 +1249,24 @@
         <v>39</v>
       </c>
       <c r="G2" s="5">
-        <v>360.6</v>
+        <v>349</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="12" t="s">
@@ -1209,18 +1276,21 @@
         <v>40</v>
       </c>
       <c r="G3" s="5">
-        <v>344.6</v>
+        <v>319</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>49</v>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="12" t="s">
@@ -1228,16 +1298,22 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -1330,10 +1406,10 @@
         <v>30</v>
       </c>
       <c r="J9" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
